--- a/Tender/GeBiz.xlsx
+++ b/Tender/GeBiz.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Reference Number</x:t>
   </x:si>
@@ -168,19 +168,6 @@
     <x:t>Ministry of Defence 6</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> NATHQ0ETT21000001 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>INVITATION TO TENDER FOR PROPOSED CONSTRUCTION OF A CANOPY AND MAINTENANCE WORKS ON FACADE OF TOWER BLOCK, ANNEXES A AND B OF MINISTRY OF NATIONAL DEV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ministry of National Development-Ministry Headquarter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30 Apr 2021
-04:00PM</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve"> LTA000ETT21000008 </x:t>
   </x:si>
   <x:si>
@@ -204,15 +191,6 @@
 04:00PM</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> PMOHQ0ERF21000001 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRE-QUALIFICATION FOR CONSTRUCTION FOR PROPOSED 2 SINGLE-STOREY HSES, AND A&amp;A TO 2 CONSERVATION HSES AT ORCHARD ROAD (1st Stage of 2-Stage PQM Tender)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prime Minister's Office-Ministry Headquarter</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve"> HDB000ETT21000036 </x:t>
   </x:si>
   <x:si>
@@ -220,6 +198,16 @@
   </x:si>
   <x:si>
     <x:t>12 May 2021
+04:00PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> HDB000ETT21000067 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROJECT 1: PT A: BLDG WRKS AT WOODLANDS N3 C16(TOTAL 1540 DU); PT B: CONTINGENCY WRKS; PROJECT 2: CONSTRUCTION OF 66KV ELECTRICAL SUBSTATION AT TENGAH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14 Jun 2021
 04:00PM</x:t>
   </x:si>
   <x:si>
@@ -868,21 +856,21 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="A16" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="C16" s="0" t="s">
         <x:v>51</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>6</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
         <x:v>52</x:v>
@@ -896,35 +884,35 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
         <x:v>55</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="A18" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
+      <x:c r="C18" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
         <x:v>58</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="A19" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="C19" s="0" t="s">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>28</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>62</x:v>
@@ -932,16 +920,16 @@
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="A20" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -980,58 +968,58 @@
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>81</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1070,13 +1058,13 @@
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>33</x:v>
@@ -1084,30 +1072,30 @@
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
